--- a/data/Resistance_Study/Phytochemistry_Data.xlsx
+++ b/data/Resistance_Study/Phytochemistry_Data.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Slam/Documents/Lindroth/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morrowcj\Desktop\holstrom-resistance-study\data\Resistance_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3311419C-044C-BF4A-AEF4-ED02E5DDC0D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BE51B4-48B6-4F58-8FDF-706049CF4821}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phytochemistry Weights Res. St." sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,9 +30,6 @@
     <t>SerialNo</t>
   </si>
   <si>
-    <t>MicrotubeNo</t>
-  </si>
-  <si>
     <t>Tree.ID</t>
   </si>
   <si>
@@ -405,13 +397,16 @@
   </si>
   <si>
     <t>Experimental:Post-feeding</t>
+  </si>
+  <si>
+    <t>MicrotubeNo/Chem.ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,11 +1051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="5" customWidth="1"/>
@@ -1071,36 +1066,36 @@
     <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -1108,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="26">
         <v>25.8</v>
@@ -1121,7 +1116,7 @@
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>19</v>
       </c>
@@ -1129,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8">
         <v>22.1</v>
@@ -1142,7 +1137,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>34</v>
       </c>
@@ -1150,10 +1145,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8">
         <v>26.6</v>
@@ -1163,7 +1158,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>57</v>
       </c>
@@ -1171,10 +1166,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8">
         <v>24</v>
@@ -1184,7 +1179,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>73</v>
       </c>
@@ -1192,10 +1187,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8">
         <v>24.9</v>
@@ -1205,7 +1200,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>119</v>
       </c>
@@ -1213,10 +1208,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>23</v>
@@ -1226,7 +1221,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>127</v>
       </c>
@@ -1234,10 +1229,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8">
         <v>24.3</v>
@@ -1247,7 +1242,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>133</v>
       </c>
@@ -1255,10 +1250,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8">
         <v>24.8</v>
@@ -1268,7 +1263,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>141</v>
       </c>
@@ -1276,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="8">
         <v>25.6</v>
@@ -1289,7 +1284,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>153</v>
       </c>
@@ -1297,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8">
         <v>23</v>
@@ -1310,7 +1305,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>156</v>
       </c>
@@ -1318,10 +1313,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8">
         <v>20.8</v>
@@ -1331,7 +1326,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>159</v>
       </c>
@@ -1339,10 +1334,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="8">
         <v>20.9</v>
@@ -1352,7 +1347,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>172</v>
       </c>
@@ -1360,10 +1355,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="8">
         <v>25.9</v>
@@ -1373,7 +1368,7 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>213</v>
       </c>
@@ -1381,10 +1376,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="8">
         <v>21</v>
@@ -1394,7 +1389,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>223</v>
       </c>
@@ -1402,10 +1397,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="8">
         <v>28.6</v>
@@ -1415,7 +1410,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>226</v>
       </c>
@@ -1423,10 +1418,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="8">
         <v>22</v>
@@ -1436,7 +1431,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>234</v>
       </c>
@@ -1444,10 +1439,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="8">
         <v>29.2</v>
@@ -1457,7 +1452,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>238</v>
       </c>
@@ -1465,10 +1460,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="8">
         <v>26.2</v>
@@ -1478,7 +1473,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>242</v>
       </c>
@@ -1486,10 +1481,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="8">
         <v>23.5</v>
@@ -1499,7 +1494,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>244</v>
       </c>
@@ -1507,10 +1502,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="8">
         <v>28.5</v>
@@ -1520,7 +1515,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>250</v>
       </c>
@@ -1528,10 +1523,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="8">
         <v>22.9</v>
@@ -1541,7 +1536,7 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>282</v>
       </c>
@@ -1549,10 +1544,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="8">
         <v>24.1</v>
@@ -1562,7 +1557,7 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>286</v>
       </c>
@@ -1570,10 +1565,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="8">
         <v>25.6</v>
@@ -1583,7 +1578,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>293</v>
       </c>
@@ -1591,10 +1586,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="8">
         <v>21.2</v>
@@ -1604,7 +1599,7 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>328</v>
       </c>
@@ -1612,10 +1607,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="8">
         <v>23.3</v>
@@ -1625,7 +1620,7 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>329</v>
       </c>
@@ -1633,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="8">
         <v>28.3</v>
@@ -1646,7 +1641,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>334</v>
       </c>
@@ -1654,10 +1649,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="8">
         <v>28.1</v>
@@ -1667,7 +1662,7 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>369</v>
       </c>
@@ -1675,10 +1670,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="8">
         <v>21.9</v>
@@ -1688,7 +1683,7 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>415</v>
       </c>
@@ -1696,10 +1691,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="8">
         <v>24</v>
@@ -1709,7 +1704,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>421</v>
       </c>
@@ -1717,10 +1712,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="8">
         <v>27.3</v>
@@ -1730,7 +1725,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>441</v>
       </c>
@@ -1738,10 +1733,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="8">
         <v>20.2</v>
@@ -1751,7 +1746,7 @@
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>451</v>
       </c>
@@ -1759,10 +1754,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="8">
         <v>28.1</v>
@@ -1772,7 +1767,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>466</v>
       </c>
@@ -1780,10 +1775,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="8">
         <v>23.8</v>
@@ -1793,7 +1788,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>467</v>
       </c>
@@ -1801,10 +1796,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="8">
         <v>25.5</v>
@@ -1814,7 +1809,7 @@
       </c>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>473</v>
       </c>
@@ -1822,10 +1817,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="8">
         <v>27.5</v>
@@ -1835,7 +1830,7 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>497</v>
       </c>
@@ -1843,10 +1838,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="8">
         <v>26.9</v>
@@ -1856,7 +1851,7 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>512</v>
       </c>
@@ -1864,10 +1859,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="8">
         <v>24.9</v>
@@ -1877,7 +1872,7 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>523</v>
       </c>
@@ -1885,10 +1880,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="8">
         <v>24.9</v>
@@ -1898,7 +1893,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>526</v>
       </c>
@@ -1906,10 +1901,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="8">
         <v>24.8</v>
@@ -1919,7 +1914,7 @@
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>528</v>
       </c>
@@ -1927,10 +1922,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="8">
         <v>21.5</v>
@@ -1940,7 +1935,7 @@
       </c>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>529</v>
       </c>
@@ -1948,10 +1943,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="8">
         <v>21.7</v>
@@ -1961,7 +1956,7 @@
       </c>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>555</v>
       </c>
@@ -1969,10 +1964,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="8">
         <v>23.7</v>
@@ -1982,7 +1977,7 @@
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>570</v>
       </c>
@@ -1990,10 +1985,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="8">
         <v>26.5</v>
@@ -2003,7 +1998,7 @@
       </c>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>586</v>
       </c>
@@ -2011,10 +2006,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="8">
         <v>23.1</v>
@@ -2024,7 +2019,7 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>602</v>
       </c>
@@ -2032,10 +2027,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="8">
         <v>23.9</v>
@@ -2045,7 +2040,7 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>616</v>
       </c>
@@ -2053,10 +2048,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="8">
         <v>25.5</v>
@@ -2066,7 +2061,7 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>617</v>
       </c>
@@ -2074,10 +2069,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="8">
         <v>28.7</v>
@@ -2087,7 +2082,7 @@
       </c>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>639</v>
       </c>
@@ -2095,10 +2090,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="8">
         <v>20.9</v>
@@ -2108,7 +2103,7 @@
       </c>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>647</v>
       </c>
@@ -2116,10 +2111,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="8">
         <v>21.4</v>
@@ -2129,7 +2124,7 @@
       </c>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>650</v>
       </c>
@@ -2137,10 +2132,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="8">
         <v>21</v>
@@ -2150,7 +2145,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>671</v>
       </c>
@@ -2158,10 +2153,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="8">
         <v>21.1</v>
@@ -2171,7 +2166,7 @@
       </c>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>672</v>
       </c>
@@ -2179,10 +2174,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="8">
         <v>28.9</v>
@@ -2192,7 +2187,7 @@
       </c>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>683</v>
       </c>
@@ -2200,10 +2195,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="8">
         <v>21</v>
@@ -2213,7 +2208,7 @@
       </c>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>697</v>
       </c>
@@ -2221,10 +2216,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="8">
         <v>24.1</v>
@@ -2234,7 +2229,7 @@
       </c>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>700</v>
       </c>
@@ -2242,10 +2237,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="8">
         <v>22.9</v>
@@ -2255,18 +2250,18 @@
       </c>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="8">
         <v>29.3</v>
@@ -2276,7 +2271,7 @@
       </c>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>715</v>
       </c>
@@ -2284,10 +2279,10 @@
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="8">
         <v>23.6</v>
@@ -2297,7 +2292,7 @@
       </c>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>751</v>
       </c>
@@ -2305,10 +2300,10 @@
         <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="8">
         <v>23.9</v>
@@ -2318,7 +2313,7 @@
       </c>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>783</v>
       </c>
@@ -2326,10 +2321,10 @@
         <v>58</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="8">
         <v>25.6</v>
@@ -2339,7 +2334,7 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>803</v>
       </c>
@@ -2347,10 +2342,10 @@
         <v>59</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="8">
         <v>24.1</v>
@@ -2360,7 +2355,7 @@
       </c>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>815</v>
       </c>
@@ -2368,10 +2363,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="8">
         <v>22.5</v>
@@ -2381,7 +2376,7 @@
       </c>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>819</v>
       </c>
@@ -2389,10 +2384,10 @@
         <v>61</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="8">
         <v>24.6</v>
@@ -2402,7 +2397,7 @@
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>833</v>
       </c>
@@ -2410,10 +2405,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="8">
         <v>24.5</v>
@@ -2423,7 +2418,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>835</v>
       </c>
@@ -2431,10 +2426,10 @@
         <v>63</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="8">
         <v>25</v>
@@ -2444,7 +2439,7 @@
       </c>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>858</v>
       </c>
@@ -2452,10 +2447,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="8">
         <v>20.399999999999999</v>
@@ -2465,7 +2460,7 @@
       </c>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>859</v>
       </c>
@@ -2473,10 +2468,10 @@
         <v>65</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="8">
         <v>21.1</v>
@@ -2486,7 +2481,7 @@
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>872</v>
       </c>
@@ -2494,10 +2489,10 @@
         <v>66</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="8">
         <v>24.4</v>
@@ -2507,7 +2502,7 @@
       </c>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>894</v>
       </c>
@@ -2515,10 +2510,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E69" s="8">
         <v>22.6</v>
@@ -2528,7 +2523,7 @@
       </c>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>902</v>
       </c>
@@ -2536,10 +2531,10 @@
         <v>68</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="8">
         <v>21.5</v>
@@ -2549,7 +2544,7 @@
       </c>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>906</v>
       </c>
@@ -2557,10 +2552,10 @@
         <v>69</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="8">
         <v>21.8</v>
@@ -2570,7 +2565,7 @@
       </c>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>930</v>
       </c>
@@ -2578,10 +2573,10 @@
         <v>70</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="8">
         <v>21.2</v>
@@ -2591,7 +2586,7 @@
       </c>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>937</v>
       </c>
@@ -2599,10 +2594,10 @@
         <v>71</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="8">
         <v>28</v>
@@ -2612,7 +2607,7 @@
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>941</v>
       </c>
@@ -2620,10 +2615,10 @@
         <v>72</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" s="8">
         <v>22.5</v>
@@ -2633,7 +2628,7 @@
       </c>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>950</v>
       </c>
@@ -2641,10 +2636,10 @@
         <v>73</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="8">
         <v>27.3</v>
@@ -2654,7 +2649,7 @@
       </c>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>955</v>
       </c>
@@ -2662,10 +2657,10 @@
         <v>74</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="8">
         <v>25.5</v>
@@ -2675,7 +2670,7 @@
       </c>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>959</v>
       </c>
@@ -2683,10 +2678,10 @@
         <v>75</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="8">
         <v>23.4</v>
@@ -2696,7 +2691,7 @@
       </c>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>965</v>
       </c>
@@ -2704,10 +2699,10 @@
         <v>76</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="8">
         <v>23.3</v>
@@ -2717,7 +2712,7 @@
       </c>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>1032</v>
       </c>
@@ -2725,10 +2720,10 @@
         <v>77</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="8">
         <v>20.399999999999999</v>
@@ -2738,7 +2733,7 @@
       </c>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>1053</v>
       </c>
@@ -2746,10 +2741,10 @@
         <v>78</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="8">
         <v>27</v>
@@ -2759,7 +2754,7 @@
       </c>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>1103</v>
       </c>
@@ -2767,10 +2762,10 @@
         <v>79</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="8">
         <v>20.8</v>
@@ -2780,7 +2775,7 @@
       </c>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>1114</v>
       </c>
@@ -2788,10 +2783,10 @@
         <v>80</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="8">
         <v>23.9</v>
@@ -2801,7 +2796,7 @@
       </c>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>1127</v>
       </c>
@@ -2809,10 +2804,10 @@
         <v>81</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="8">
         <v>22.7</v>
@@ -2822,7 +2817,7 @@
       </c>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>1149</v>
       </c>
@@ -2830,10 +2825,10 @@
         <v>82</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="8">
         <v>28</v>
@@ -2843,7 +2838,7 @@
       </c>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>1150</v>
       </c>
@@ -2851,10 +2846,10 @@
         <v>83</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" s="8">
         <v>21.8</v>
@@ -2864,7 +2859,7 @@
       </c>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>1151</v>
       </c>
@@ -2872,10 +2867,10 @@
         <v>84</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="8">
         <v>28.8</v>
@@ -2885,7 +2880,7 @@
       </c>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>1157</v>
       </c>
@@ -2893,10 +2888,10 @@
         <v>85</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="8">
         <v>21</v>
@@ -2906,7 +2901,7 @@
       </c>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>1190</v>
       </c>
@@ -2914,10 +2909,10 @@
         <v>86</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" s="8">
         <v>27.5</v>
@@ -2927,7 +2922,7 @@
       </c>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>1197</v>
       </c>
@@ -2935,10 +2930,10 @@
         <v>87</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="8">
         <v>20.399999999999999</v>
@@ -2948,7 +2943,7 @@
       </c>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>1211</v>
       </c>
@@ -2956,10 +2951,10 @@
         <v>88</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" s="8">
         <v>29.5</v>
@@ -2969,7 +2964,7 @@
       </c>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>1249</v>
       </c>
@@ -2977,10 +2972,10 @@
         <v>89</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="8">
         <v>29.5</v>
@@ -2990,7 +2985,7 @@
       </c>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>1252</v>
       </c>
@@ -2998,10 +2993,10 @@
         <v>90</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="8">
         <v>24.6</v>
@@ -3011,7 +3006,7 @@
       </c>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>1270</v>
       </c>
@@ -3019,10 +3014,10 @@
         <v>91</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="8">
         <v>20.100000000000001</v>
@@ -3032,7 +3027,7 @@
       </c>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>1273</v>
       </c>
@@ -3040,10 +3035,10 @@
         <v>92</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="8">
         <v>27.9</v>
@@ -3053,7 +3048,7 @@
       </c>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>1303</v>
       </c>
@@ -3061,10 +3056,10 @@
         <v>93</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="8">
         <v>25.7</v>
@@ -3074,7 +3069,7 @@
       </c>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>1309</v>
       </c>
@@ -3082,10 +3077,10 @@
         <v>94</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="8">
         <v>28.7</v>
@@ -3095,7 +3090,7 @@
       </c>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>1317</v>
       </c>
@@ -3103,10 +3098,10 @@
         <v>95</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" s="8">
         <v>28.9</v>
@@ -3116,7 +3111,7 @@
       </c>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>1321</v>
       </c>
@@ -3124,10 +3119,10 @@
         <v>96</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="8">
         <v>22.2</v>
@@ -3137,7 +3132,7 @@
       </c>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>1371</v>
       </c>
@@ -3145,10 +3140,10 @@
         <v>97</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="8">
         <v>27.4</v>
@@ -3158,7 +3153,7 @@
       </c>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>1379</v>
       </c>
@@ -3166,10 +3161,10 @@
         <v>98</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" s="8">
         <v>25.5</v>
@@ -3179,7 +3174,7 @@
       </c>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="32">
         <v>1391</v>
       </c>
@@ -3187,19 +3182,19 @@
         <v>99</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="34"/>
       <c r="F101" s="35"/>
       <c r="G101" s="36"/>
       <c r="H101" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>1403</v>
       </c>
@@ -3207,10 +3202,10 @@
         <v>100</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102" s="8">
         <v>22.8</v>
@@ -3220,7 +3215,7 @@
       </c>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>1419</v>
       </c>
@@ -3228,10 +3223,10 @@
         <v>101</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103" s="8">
         <v>21.3</v>
@@ -3241,7 +3236,7 @@
       </c>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>1423</v>
       </c>
@@ -3249,10 +3244,10 @@
         <v>102</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104" s="8">
         <v>22.5</v>
@@ -3262,7 +3257,7 @@
       </c>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>1442</v>
       </c>
@@ -3270,10 +3265,10 @@
         <v>103</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="8">
         <v>23.8</v>
@@ -3283,7 +3278,7 @@
       </c>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>1450</v>
       </c>
@@ -3291,10 +3286,10 @@
         <v>104</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106" s="8">
         <v>22.3</v>
@@ -3304,7 +3299,7 @@
       </c>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>1481</v>
       </c>
@@ -3312,10 +3307,10 @@
         <v>105</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" s="8">
         <v>20.6</v>
@@ -3325,7 +3320,7 @@
       </c>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>1485</v>
       </c>
@@ -3333,10 +3328,10 @@
         <v>106</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108" s="8">
         <v>27.3</v>
@@ -3346,7 +3341,7 @@
       </c>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>1521</v>
       </c>
@@ -3354,10 +3349,10 @@
         <v>107</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="8">
         <v>30</v>
@@ -3367,7 +3362,7 @@
       </c>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:8" s="11" customFormat="1" ht="15.95" thickBot="1">
+    <row r="110" spans="1:8" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>1552</v>
       </c>
@@ -3375,10 +3370,10 @@
         <v>108</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" s="14">
         <v>22.9</v>
@@ -3388,7 +3383,7 @@
       </c>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="18">
         <v>2</v>
       </c>
@@ -3396,10 +3391,10 @@
         <v>109</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E111" s="21">
         <v>22.9</v>
@@ -3409,7 +3404,7 @@
       </c>
       <c r="G111" s="19"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="18">
         <v>19</v>
       </c>
@@ -3417,10 +3412,10 @@
         <v>110</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E112" s="8">
         <v>22.3</v>
@@ -3430,7 +3425,7 @@
       </c>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="18">
         <v>34</v>
       </c>
@@ -3438,10 +3433,10 @@
         <v>111</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E113" s="8">
         <v>21.4</v>
@@ -3451,7 +3446,7 @@
       </c>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="18">
         <v>57</v>
       </c>
@@ -3459,10 +3454,10 @@
         <v>112</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E114" s="8">
         <v>22.2</v>
@@ -3472,7 +3467,7 @@
       </c>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="18">
         <v>73</v>
       </c>
@@ -3480,10 +3475,10 @@
         <v>113</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E115" s="8">
         <v>21</v>
@@ -3493,7 +3488,7 @@
       </c>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="18">
         <v>119</v>
       </c>
@@ -3501,10 +3496,10 @@
         <v>114</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E116" s="8">
         <v>22.3</v>
@@ -3514,7 +3509,7 @@
       </c>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="18">
         <v>127</v>
       </c>
@@ -3522,10 +3517,10 @@
         <v>115</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E117" s="8">
         <v>21.8</v>
@@ -3535,7 +3530,7 @@
       </c>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="18">
         <v>133</v>
       </c>
@@ -3543,10 +3538,10 @@
         <v>116</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E118" s="8">
         <v>24.2</v>
@@ -3556,7 +3551,7 @@
       </c>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="18">
         <v>141</v>
       </c>
@@ -3564,10 +3559,10 @@
         <v>117</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E119" s="8">
         <v>24.1</v>
@@ -3577,7 +3572,7 @@
       </c>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="18">
         <v>153</v>
       </c>
@@ -3585,10 +3580,10 @@
         <v>118</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E120" s="8">
         <v>20.8</v>
@@ -3598,7 +3593,7 @@
       </c>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="18">
         <v>156</v>
       </c>
@@ -3606,10 +3601,10 @@
         <v>119</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E121" s="8">
         <v>23.5</v>
@@ -3619,7 +3614,7 @@
       </c>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="18">
         <v>159</v>
       </c>
@@ -3627,10 +3622,10 @@
         <v>120</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E122" s="8">
         <v>25.9</v>
@@ -3640,7 +3635,7 @@
       </c>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
         <v>172</v>
       </c>
@@ -3648,10 +3643,10 @@
         <v>121</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E123" s="8">
         <v>21</v>
@@ -3661,7 +3656,7 @@
       </c>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="18">
         <v>213</v>
       </c>
@@ -3669,10 +3664,10 @@
         <v>122</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E124" s="8">
         <v>23</v>
@@ -3682,7 +3677,7 @@
       </c>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="18">
         <v>223</v>
       </c>
@@ -3690,10 +3685,10 @@
         <v>123</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E125" s="8">
         <v>26.7</v>
@@ -3703,7 +3698,7 @@
       </c>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="18">
         <v>226</v>
       </c>
@@ -3711,10 +3706,10 @@
         <v>124</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E126" s="8">
         <v>24</v>
@@ -3724,7 +3719,7 @@
       </c>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="18">
         <v>234</v>
       </c>
@@ -3732,10 +3727,10 @@
         <v>125</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E127" s="8">
         <v>27</v>
@@ -3745,7 +3740,7 @@
       </c>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="18">
         <v>238</v>
       </c>
@@ -3753,10 +3748,10 @@
         <v>126</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E128" s="8">
         <v>21.2</v>
@@ -3766,7 +3761,7 @@
       </c>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="18">
         <v>242</v>
       </c>
@@ -3774,10 +3769,10 @@
         <v>127</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E129" s="8">
         <v>22.8</v>
@@ -3787,7 +3782,7 @@
       </c>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="18">
         <v>244</v>
       </c>
@@ -3795,10 +3790,10 @@
         <v>128</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E130" s="8">
         <v>21.6</v>
@@ -3808,7 +3803,7 @@
       </c>
       <c r="G130" s="6"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
         <v>250</v>
       </c>
@@ -3816,10 +3811,10 @@
         <v>129</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E131" s="8">
         <v>29.8</v>
@@ -3829,7 +3824,7 @@
       </c>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="18">
         <v>282</v>
       </c>
@@ -3837,10 +3832,10 @@
         <v>130</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E132" s="8">
         <v>23</v>
@@ -3850,7 +3845,7 @@
       </c>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="18">
         <v>286</v>
       </c>
@@ -3858,10 +3853,10 @@
         <v>131</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E133" s="8">
         <v>24.8</v>
@@ -3871,7 +3866,7 @@
       </c>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="18">
         <v>293</v>
       </c>
@@ -3879,10 +3874,10 @@
         <v>132</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E134" s="8">
         <v>29.1</v>
@@ -3892,7 +3887,7 @@
       </c>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="18">
         <v>328</v>
       </c>
@@ -3900,10 +3895,10 @@
         <v>133</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E135" s="8">
         <v>20.399999999999999</v>
@@ -3913,7 +3908,7 @@
       </c>
       <c r="G135" s="6"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="18">
         <v>329</v>
       </c>
@@ -3921,10 +3916,10 @@
         <v>134</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E136" s="8">
         <v>20.9</v>
@@ -3934,7 +3929,7 @@
       </c>
       <c r="G136" s="6"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="18">
         <v>334</v>
       </c>
@@ -3942,10 +3937,10 @@
         <v>135</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E137" s="8">
         <v>21.7</v>
@@ -3955,7 +3950,7 @@
       </c>
       <c r="G137" s="6"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="18">
         <v>369</v>
       </c>
@@ -3963,10 +3958,10 @@
         <v>136</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E138" s="8">
         <v>21.2</v>
@@ -3976,7 +3971,7 @@
       </c>
       <c r="G138" s="6"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="18">
         <v>415</v>
       </c>
@@ -3984,10 +3979,10 @@
         <v>137</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E139" s="8">
         <v>20.399999999999999</v>
@@ -3997,7 +3992,7 @@
       </c>
       <c r="G139" s="6"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="18">
         <v>421</v>
       </c>
@@ -4005,10 +4000,10 @@
         <v>138</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E140" s="8">
         <v>24.2</v>
@@ -4018,7 +4013,7 @@
       </c>
       <c r="G140" s="6"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="18">
         <v>441</v>
       </c>
@@ -4026,10 +4021,10 @@
         <v>139</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E141" s="8">
         <v>20.9</v>
@@ -4039,7 +4034,7 @@
       </c>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="18">
         <v>451</v>
       </c>
@@ -4047,10 +4042,10 @@
         <v>140</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E142" s="8">
         <v>23.6</v>
@@ -4060,7 +4055,7 @@
       </c>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="18">
         <v>466</v>
       </c>
@@ -4068,10 +4063,10 @@
         <v>141</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E143" s="8">
         <v>25.9</v>
@@ -4081,7 +4076,7 @@
       </c>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="18">
         <v>467</v>
       </c>
@@ -4089,10 +4084,10 @@
         <v>142</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E144" s="8">
         <v>25.2</v>
@@ -4102,7 +4097,7 @@
       </c>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="18">
         <v>473</v>
       </c>
@@ -4110,10 +4105,10 @@
         <v>143</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E145" s="8">
         <v>27.4</v>
@@ -4123,7 +4118,7 @@
       </c>
       <c r="G145" s="6"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="18">
         <v>497</v>
       </c>
@@ -4131,10 +4126,10 @@
         <v>144</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E146" s="8">
         <v>23.6</v>
@@ -4144,7 +4139,7 @@
       </c>
       <c r="G146" s="6"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="18">
         <v>512</v>
       </c>
@@ -4152,10 +4147,10 @@
         <v>145</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E147" s="8">
         <v>21.5</v>
@@ -4165,7 +4160,7 @@
       </c>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="18">
         <v>523</v>
       </c>
@@ -4173,10 +4168,10 @@
         <v>146</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E148" s="8">
         <v>23.6</v>
@@ -4186,7 +4181,7 @@
       </c>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="18">
         <v>526</v>
       </c>
@@ -4194,10 +4189,10 @@
         <v>147</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E149" s="8">
         <v>24.5</v>
@@ -4207,7 +4202,7 @@
       </c>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="18">
         <v>528</v>
       </c>
@@ -4215,10 +4210,10 @@
         <v>148</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E150" s="8">
         <v>25.5</v>
@@ -4228,7 +4223,7 @@
       </c>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="18">
         <v>529</v>
       </c>
@@ -4236,10 +4231,10 @@
         <v>149</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E151" s="8">
         <v>26.2</v>
@@ -4249,7 +4244,7 @@
       </c>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="18">
         <v>555</v>
       </c>
@@ -4257,10 +4252,10 @@
         <v>150</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E152" s="8">
         <v>29</v>
@@ -4270,7 +4265,7 @@
       </c>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="18">
         <v>570</v>
       </c>
@@ -4278,10 +4273,10 @@
         <v>151</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E153" s="8">
         <v>26.8</v>
@@ -4291,7 +4286,7 @@
       </c>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="18">
         <v>586</v>
       </c>
@@ -4299,10 +4294,10 @@
         <v>152</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E154" s="8">
         <v>26.4</v>
@@ -4312,7 +4307,7 @@
       </c>
       <c r="G154" s="6"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="18">
         <v>602</v>
       </c>
@@ -4320,10 +4315,10 @@
         <v>153</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E155" s="8">
         <v>28.6</v>
@@ -4333,7 +4328,7 @@
       </c>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="18">
         <v>616</v>
       </c>
@@ -4341,10 +4336,10 @@
         <v>154</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E156" s="8">
         <v>25.8</v>
@@ -4354,7 +4349,7 @@
       </c>
       <c r="G156" s="6"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="18">
         <v>617</v>
       </c>
@@ -4362,10 +4357,10 @@
         <v>155</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E157" s="8">
         <v>22.5</v>
@@ -4375,7 +4370,7 @@
       </c>
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="18">
         <v>639</v>
       </c>
@@ -4383,10 +4378,10 @@
         <v>156</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E158" s="8">
         <v>22.2</v>
@@ -4396,7 +4391,7 @@
       </c>
       <c r="G158" s="6"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="18">
         <v>647</v>
       </c>
@@ -4404,10 +4399,10 @@
         <v>157</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E159" s="8">
         <v>22.5</v>
@@ -4417,7 +4412,7 @@
       </c>
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="18">
         <v>650</v>
       </c>
@@ -4425,10 +4420,10 @@
         <v>158</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E160" s="8">
         <v>21.1</v>
@@ -4438,7 +4433,7 @@
       </c>
       <c r="G160" s="6"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="18">
         <v>671</v>
       </c>
@@ -4446,10 +4441,10 @@
         <v>159</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E161" s="8">
         <v>21</v>
@@ -4459,7 +4454,7 @@
       </c>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="18">
         <v>672</v>
       </c>
@@ -4467,10 +4462,10 @@
         <v>160</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E162" s="8">
         <v>27.8</v>
@@ -4480,7 +4475,7 @@
       </c>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="18">
         <v>683</v>
       </c>
@@ -4488,10 +4483,10 @@
         <v>161</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E163" s="8">
         <v>24.3</v>
@@ -4501,7 +4496,7 @@
       </c>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="18">
         <v>697</v>
       </c>
@@ -4509,10 +4504,10 @@
         <v>162</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E164" s="8">
         <v>24.1</v>
@@ -4522,7 +4517,7 @@
       </c>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="18">
         <v>700</v>
       </c>
@@ -4530,10 +4525,10 @@
         <v>163</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E165" s="8">
         <v>23.6</v>
@@ -4543,7 +4538,7 @@
       </c>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="18">
         <v>715</v>
       </c>
@@ -4551,10 +4546,10 @@
         <v>164</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E166" s="8">
         <v>21.8</v>
@@ -4564,7 +4559,7 @@
       </c>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="18">
         <v>751</v>
       </c>
@@ -4572,10 +4567,10 @@
         <v>165</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E167" s="8">
         <v>25.1</v>
@@ -4585,7 +4580,7 @@
       </c>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="18">
         <v>783</v>
       </c>
@@ -4593,10 +4588,10 @@
         <v>166</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E168" s="8">
         <v>23.7</v>
@@ -4606,7 +4601,7 @@
       </c>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="18">
         <v>803</v>
       </c>
@@ -4614,10 +4609,10 @@
         <v>167</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E169" s="8">
         <v>21.6</v>
@@ -4627,7 +4622,7 @@
       </c>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="18">
         <v>815</v>
       </c>
@@ -4635,10 +4630,10 @@
         <v>168</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E170" s="8">
         <v>24.7</v>
@@ -4648,7 +4643,7 @@
       </c>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="18">
         <v>819</v>
       </c>
@@ -4656,10 +4651,10 @@
         <v>169</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E171" s="8">
         <v>29.8</v>
@@ -4669,7 +4664,7 @@
       </c>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="18">
         <v>833</v>
       </c>
@@ -4677,10 +4672,10 @@
         <v>170</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E172" s="8">
         <v>26.2</v>
@@ -4690,7 +4685,7 @@
       </c>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="18">
         <v>835</v>
       </c>
@@ -4698,10 +4693,10 @@
         <v>171</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E173" s="8">
         <v>25</v>
@@ -4711,7 +4706,7 @@
       </c>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="18">
         <v>858</v>
       </c>
@@ -4719,10 +4714,10 @@
         <v>172</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E174" s="8">
         <v>28.3</v>
@@ -4732,7 +4727,7 @@
       </c>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="18">
         <v>859</v>
       </c>
@@ -4740,10 +4735,10 @@
         <v>173</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E175" s="8">
         <v>27.6</v>
@@ -4753,7 +4748,7 @@
       </c>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="18">
         <v>872</v>
       </c>
@@ -4761,10 +4756,10 @@
         <v>174</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E176" s="8">
         <v>22</v>
@@ -4774,7 +4769,7 @@
       </c>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="18">
         <v>894</v>
       </c>
@@ -4782,10 +4777,10 @@
         <v>175</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E177" s="8">
         <v>23.5</v>
@@ -4795,7 +4790,7 @@
       </c>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="18">
         <v>902</v>
       </c>
@@ -4803,10 +4798,10 @@
         <v>176</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E178" s="8">
         <v>26</v>
@@ -4816,7 +4811,7 @@
       </c>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="18">
         <v>906</v>
       </c>
@@ -4824,10 +4819,10 @@
         <v>177</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E179" s="8">
         <v>24.4</v>
@@ -4837,7 +4832,7 @@
       </c>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="18">
         <v>930</v>
       </c>
@@ -4845,10 +4840,10 @@
         <v>178</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E180" s="8">
         <v>25.2</v>
@@ -4858,7 +4853,7 @@
       </c>
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="18">
         <v>937</v>
       </c>
@@ -4866,10 +4861,10 @@
         <v>179</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E181" s="8">
         <v>27.6</v>
@@ -4879,7 +4874,7 @@
       </c>
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="18">
         <v>941</v>
       </c>
@@ -4887,10 +4882,10 @@
         <v>180</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E182" s="8">
         <v>24.5</v>
@@ -4900,7 +4895,7 @@
       </c>
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="18">
         <v>950</v>
       </c>
@@ -4908,10 +4903,10 @@
         <v>181</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E183" s="8">
         <v>29.8</v>
@@ -4921,7 +4916,7 @@
       </c>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="18">
         <v>955</v>
       </c>
@@ -4929,10 +4924,10 @@
         <v>182</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E184" s="8">
         <v>21.7</v>
@@ -4942,7 +4937,7 @@
       </c>
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="18">
         <v>959</v>
       </c>
@@ -4950,10 +4945,10 @@
         <v>183</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E185" s="8">
         <v>23.5</v>
@@ -4963,7 +4958,7 @@
       </c>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="18">
         <v>965</v>
       </c>
@@ -4971,10 +4966,10 @@
         <v>184</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E186" s="8">
         <v>26.1</v>
@@ -4984,7 +4979,7 @@
       </c>
       <c r="G186" s="6"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="18">
         <v>1032</v>
       </c>
@@ -4992,10 +4987,10 @@
         <v>185</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E187" s="8">
         <v>26.1</v>
@@ -5005,7 +5000,7 @@
       </c>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="18">
         <v>1053</v>
       </c>
@@ -5013,10 +5008,10 @@
         <v>186</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E188" s="8">
         <v>23.3</v>
@@ -5026,7 +5021,7 @@
       </c>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="18">
         <v>1103</v>
       </c>
@@ -5034,10 +5029,10 @@
         <v>187</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E189" s="8">
         <v>22.7</v>
@@ -5047,7 +5042,7 @@
       </c>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="18">
         <v>1114</v>
       </c>
@@ -5055,10 +5050,10 @@
         <v>188</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E190" s="8">
         <v>25.3</v>
@@ -5068,7 +5063,7 @@
       </c>
       <c r="G190" s="6"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="18">
         <v>1127</v>
       </c>
@@ -5076,10 +5071,10 @@
         <v>189</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E191" s="8">
         <v>23.9</v>
@@ -5089,7 +5084,7 @@
       </c>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="18">
         <v>1149</v>
       </c>
@@ -5097,10 +5092,10 @@
         <v>190</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E192" s="8">
         <v>20.9</v>
@@ -5110,7 +5105,7 @@
       </c>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="18">
         <v>1150</v>
       </c>
@@ -5118,10 +5113,10 @@
         <v>191</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E193" s="8">
         <v>21.9</v>
@@ -5131,7 +5126,7 @@
       </c>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="18">
         <v>1151</v>
       </c>
@@ -5139,10 +5134,10 @@
         <v>192</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E194" s="8">
         <v>27.4</v>
@@ -5152,7 +5147,7 @@
       </c>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="18">
         <v>1157</v>
       </c>
@@ -5160,10 +5155,10 @@
         <v>193</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E195" s="8">
         <v>26.9</v>
@@ -5173,7 +5168,7 @@
       </c>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="18">
         <v>1190</v>
       </c>
@@ -5181,10 +5176,10 @@
         <v>194</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E196" s="8">
         <v>23.7</v>
@@ -5194,7 +5189,7 @@
       </c>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="18">
         <v>1197</v>
       </c>
@@ -5202,10 +5197,10 @@
         <v>195</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E197" s="8">
         <v>27.1</v>
@@ -5215,7 +5210,7 @@
       </c>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="18">
         <v>1211</v>
       </c>
@@ -5223,10 +5218,10 @@
         <v>196</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E198" s="8">
         <v>24.2</v>
@@ -5236,7 +5231,7 @@
       </c>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="18">
         <v>1249</v>
       </c>
@@ -5244,10 +5239,10 @@
         <v>197</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E199" s="8">
         <v>25</v>
@@ -5257,7 +5252,7 @@
       </c>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="18">
         <v>1252</v>
       </c>
@@ -5265,10 +5260,10 @@
         <v>198</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E200" s="8">
         <v>28.9</v>
@@ -5278,7 +5273,7 @@
       </c>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="18">
         <v>1270</v>
       </c>
@@ -5286,10 +5281,10 @@
         <v>199</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E201" s="8">
         <v>27.9</v>
@@ -5299,7 +5294,7 @@
       </c>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="18">
         <v>1273</v>
       </c>
@@ -5307,10 +5302,10 @@
         <v>200</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E202" s="8">
         <v>24.6</v>
@@ -5320,7 +5315,7 @@
       </c>
       <c r="G202" s="6"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="18">
         <v>1303</v>
       </c>
@@ -5328,10 +5323,10 @@
         <v>201</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E203" s="8">
         <v>23.3</v>
@@ -5341,7 +5336,7 @@
       </c>
       <c r="G203" s="6"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="18">
         <v>1309</v>
       </c>
@@ -5349,10 +5344,10 @@
         <v>202</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E204" s="8">
         <v>29.6</v>
@@ -5362,7 +5357,7 @@
       </c>
       <c r="G204" s="6"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="18">
         <v>1317</v>
       </c>
@@ -5370,10 +5365,10 @@
         <v>203</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E205" s="8">
         <v>23.5</v>
@@ -5383,7 +5378,7 @@
       </c>
       <c r="G205" s="6"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="18">
         <v>1321</v>
       </c>
@@ -5391,10 +5386,10 @@
         <v>204</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E206" s="8">
         <v>20.7</v>
@@ -5404,7 +5399,7 @@
       </c>
       <c r="G206" s="6"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="18">
         <v>1371</v>
       </c>
@@ -5412,10 +5407,10 @@
         <v>205</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E207" s="8">
         <v>28.3</v>
@@ -5425,10 +5420,10 @@
       </c>
       <c r="G207" s="6"/>
       <c r="I207" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="18">
         <v>1379</v>
       </c>
@@ -5436,10 +5431,10 @@
         <v>206</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E208" s="8">
         <v>27.5</v>
@@ -5449,7 +5444,7 @@
       </c>
       <c r="G208" s="6"/>
     </row>
-    <row r="209" spans="1:9" s="37" customFormat="1">
+    <row r="209" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>1391</v>
       </c>
@@ -5457,19 +5452,19 @@
         <v>207</v>
       </c>
       <c r="C209" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D209" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E209" s="34"/>
       <c r="F209" s="35"/>
       <c r="G209" s="36"/>
       <c r="H209" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="18">
         <v>1403</v>
       </c>
@@ -5477,10 +5472,10 @@
         <v>208</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E210" s="8">
         <v>25.4</v>
@@ -5490,7 +5485,7 @@
       </c>
       <c r="G210" s="6"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="18">
         <v>1419</v>
       </c>
@@ -5498,10 +5493,10 @@
         <v>209</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E211" s="8">
         <v>28</v>
@@ -5511,7 +5506,7 @@
       </c>
       <c r="G211" s="6"/>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="18">
         <v>1423</v>
       </c>
@@ -5519,10 +5514,10 @@
         <v>210</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E212" s="8">
         <v>21</v>
@@ -5532,7 +5527,7 @@
       </c>
       <c r="G212" s="6"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="18">
         <v>1442</v>
       </c>
@@ -5540,10 +5535,10 @@
         <v>211</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E213" s="8">
         <v>22.4</v>
@@ -5553,7 +5548,7 @@
       </c>
       <c r="G213" s="6"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="18">
         <v>1450</v>
       </c>
@@ -5561,10 +5556,10 @@
         <v>212</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E214" s="8">
         <v>28.8</v>
@@ -5574,7 +5569,7 @@
       </c>
       <c r="G214" s="6"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="18">
         <v>1481</v>
       </c>
@@ -5582,10 +5577,10 @@
         <v>213</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E215" s="8">
         <v>27.1</v>
@@ -5595,7 +5590,7 @@
       </c>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="18">
         <v>1485</v>
       </c>
@@ -5603,10 +5598,10 @@
         <v>214</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E216" s="8">
         <v>20</v>
@@ -5616,7 +5611,7 @@
       </c>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="18">
         <v>1521</v>
       </c>
@@ -5624,10 +5619,10 @@
         <v>215</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E217" s="8">
         <v>21.9</v>
@@ -5637,7 +5632,7 @@
       </c>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:9" s="11" customFormat="1" ht="15.95" thickBot="1">
+    <row r="218" spans="1:9" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>1552</v>
       </c>
@@ -5645,10 +5640,10 @@
         <v>216</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E218" s="14">
         <v>22.1</v>
@@ -5658,7 +5653,7 @@
       </c>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>2</v>
       </c>
@@ -5666,10 +5661,10 @@
         <v>217</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E219" s="8">
         <v>26.4</v>
@@ -5679,7 +5674,7 @@
       </c>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>19</v>
       </c>
@@ -5687,10 +5682,10 @@
         <v>218</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E220" s="8">
         <v>24.1</v>
@@ -5700,7 +5695,7 @@
       </c>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>34</v>
       </c>
@@ -5708,10 +5703,10 @@
         <v>219</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E221" s="8">
         <v>27.8</v>
@@ -5721,7 +5716,7 @@
       </c>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>57</v>
       </c>
@@ -5729,10 +5724,10 @@
         <v>220</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E222" s="8">
         <v>28.3</v>
@@ -5742,7 +5737,7 @@
       </c>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>73</v>
       </c>
@@ -5750,10 +5745,10 @@
         <v>221</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E223" s="8">
         <v>23.4</v>
@@ -5763,7 +5758,7 @@
       </c>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="10">
         <v>119</v>
       </c>
@@ -5771,10 +5766,10 @@
         <v>222</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E224" s="8">
         <v>20.2</v>
@@ -5784,10 +5779,10 @@
       </c>
       <c r="G224" s="6"/>
       <c r="I224" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="10">
         <v>127</v>
       </c>
@@ -5795,10 +5790,10 @@
         <v>223</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E225" s="8">
         <v>20.6</v>
@@ -5808,7 +5803,7 @@
       </c>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>133</v>
       </c>
@@ -5816,10 +5811,10 @@
         <v>224</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E226" s="8">
         <v>26.8</v>
@@ -5829,7 +5824,7 @@
       </c>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
         <v>141</v>
       </c>
@@ -5837,10 +5832,10 @@
         <v>225</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E227" s="8">
         <v>29.1</v>
@@ -5850,7 +5845,7 @@
       </c>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="10">
         <v>153</v>
       </c>
@@ -5858,10 +5853,10 @@
         <v>226</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E228" s="8">
         <v>20.2</v>
@@ -5871,7 +5866,7 @@
       </c>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>156</v>
       </c>
@@ -5879,10 +5874,10 @@
         <v>227</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E229" s="8">
         <v>20.5</v>
@@ -5892,7 +5887,7 @@
       </c>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="10">
         <v>159</v>
       </c>
@@ -5900,10 +5895,10 @@
         <v>228</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E230" s="8">
         <v>25.2</v>
@@ -5913,7 +5908,7 @@
       </c>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="10">
         <v>172</v>
       </c>
@@ -5921,10 +5916,10 @@
         <v>229</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E231" s="8">
         <v>27</v>
@@ -5934,7 +5929,7 @@
       </c>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>213</v>
       </c>
@@ -5942,10 +5937,10 @@
         <v>230</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E232" s="8">
         <v>23</v>
@@ -5955,7 +5950,7 @@
       </c>
       <c r="G232" s="6"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="10">
         <v>223</v>
       </c>
@@ -5963,10 +5958,10 @@
         <v>231</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E233" s="8">
         <v>26.8</v>
@@ -5976,7 +5971,7 @@
       </c>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
         <v>226</v>
       </c>
@@ -5984,10 +5979,10 @@
         <v>232</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E234" s="8">
         <v>21.5</v>
@@ -5997,7 +5992,7 @@
       </c>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>234</v>
       </c>
@@ -6005,10 +6000,10 @@
         <v>233</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E235" s="8">
         <v>28.8</v>
@@ -6018,7 +6013,7 @@
       </c>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="10">
         <v>238</v>
       </c>
@@ -6026,10 +6021,10 @@
         <v>234</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E236" s="8">
         <v>21.6</v>
@@ -6039,10 +6034,10 @@
       </c>
       <c r="G236" s="6"/>
       <c r="I236" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="10">
         <v>242</v>
       </c>
@@ -6050,10 +6045,10 @@
         <v>235</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E237" s="8">
         <v>25.8</v>
@@ -6063,10 +6058,10 @@
       </c>
       <c r="G237" s="6"/>
       <c r="I237" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="10">
         <v>244</v>
       </c>
@@ -6074,10 +6069,10 @@
         <v>236</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E238" s="8">
         <v>20.9</v>
@@ -6087,10 +6082,10 @@
       </c>
       <c r="G238" s="6"/>
       <c r="I238" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="10">
         <v>250</v>
       </c>
@@ -6098,10 +6093,10 @@
         <v>237</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E239" s="8">
         <v>25.1</v>
@@ -6111,10 +6106,10 @@
       </c>
       <c r="G239" s="6"/>
       <c r="I239" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="10">
         <v>282</v>
       </c>
@@ -6122,10 +6117,10 @@
         <v>238</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E240" s="8">
         <v>21.6</v>
@@ -6135,10 +6130,10 @@
       </c>
       <c r="G240" s="6"/>
       <c r="I240" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="10">
         <v>286</v>
       </c>
@@ -6146,10 +6141,10 @@
         <v>239</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E241" s="8">
         <v>29.4</v>
@@ -6159,10 +6154,10 @@
       </c>
       <c r="G241" s="6"/>
       <c r="I241" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="10">
         <v>293</v>
       </c>
@@ -6170,10 +6165,10 @@
         <v>240</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E242" s="8">
         <v>28.7</v>
@@ -6183,10 +6178,10 @@
       </c>
       <c r="G242" s="6"/>
       <c r="I242" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="10">
         <v>328</v>
       </c>
@@ -6194,10 +6189,10 @@
         <v>241</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E243" s="8">
         <v>23.6</v>
@@ -6207,10 +6202,10 @@
       </c>
       <c r="G243" s="6"/>
       <c r="I243" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="10">
         <v>329</v>
       </c>
@@ -6218,10 +6213,10 @@
         <v>242</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E244" s="8">
         <v>21.9</v>
@@ -6231,10 +6226,10 @@
       </c>
       <c r="G244" s="6"/>
       <c r="I244" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="10">
         <v>334</v>
       </c>
@@ -6242,10 +6237,10 @@
         <v>243</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E245" s="8">
         <v>25.7</v>
@@ -6255,10 +6250,10 @@
       </c>
       <c r="G245" s="6"/>
       <c r="I245" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="10">
         <v>369</v>
       </c>
@@ -6266,10 +6261,10 @@
         <v>244</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E246" s="8">
         <v>25.1</v>
@@ -6279,10 +6274,10 @@
       </c>
       <c r="G246" s="6"/>
       <c r="I246" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="10">
         <v>415</v>
       </c>
@@ -6290,10 +6285,10 @@
         <v>245</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E247" s="8">
         <v>26.6</v>
@@ -6303,10 +6298,10 @@
       </c>
       <c r="G247" s="6"/>
       <c r="I247" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="10">
         <v>421</v>
       </c>
@@ -6314,10 +6309,10 @@
         <v>246</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E248" s="8">
         <v>26.2</v>
@@ -6327,10 +6322,10 @@
       </c>
       <c r="G248" s="6"/>
       <c r="I248" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="10">
         <v>441</v>
       </c>
@@ -6338,10 +6333,10 @@
         <v>247</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E249" s="8">
         <v>26.7</v>
@@ -6351,10 +6346,10 @@
       </c>
       <c r="G249" s="6"/>
       <c r="I249" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="10">
         <v>451</v>
       </c>
@@ -6362,10 +6357,10 @@
         <v>248</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E250" s="8">
         <v>22.5</v>
@@ -6375,10 +6370,10 @@
       </c>
       <c r="G250" s="6"/>
       <c r="I250" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="10">
         <v>466</v>
       </c>
@@ -6386,10 +6381,10 @@
         <v>249</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E251" s="8">
         <v>23.2</v>
@@ -6399,10 +6394,10 @@
       </c>
       <c r="G251" s="6"/>
       <c r="I251" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="10">
         <v>467</v>
       </c>
@@ -6410,10 +6405,10 @@
         <v>250</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E252" s="8">
         <v>26.7</v>
@@ -6423,10 +6418,10 @@
       </c>
       <c r="G252" s="6"/>
       <c r="I252" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="10">
         <v>473</v>
       </c>
@@ -6434,10 +6429,10 @@
         <v>251</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E253" s="8">
         <v>20.3</v>
@@ -6447,10 +6442,10 @@
       </c>
       <c r="G253" s="6"/>
       <c r="I253" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="10">
         <v>497</v>
       </c>
@@ -6458,10 +6453,10 @@
         <v>252</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E254" s="8">
         <v>26.9</v>
@@ -6471,10 +6466,10 @@
       </c>
       <c r="G254" s="6"/>
       <c r="I254" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
         <v>512</v>
       </c>
@@ -6482,10 +6477,10 @@
         <v>253</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E255" s="8">
         <v>23.7</v>
@@ -6495,10 +6490,10 @@
       </c>
       <c r="G255" s="6"/>
       <c r="I255" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="10">
         <v>523</v>
       </c>
@@ -6506,10 +6501,10 @@
         <v>254</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E256" s="8">
         <v>28.1</v>
@@ -6519,10 +6514,10 @@
       </c>
       <c r="G256" s="6"/>
       <c r="I256" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="10">
         <v>526</v>
       </c>
@@ -6530,10 +6525,10 @@
         <v>255</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E257" s="8">
         <v>29</v>
@@ -6543,10 +6538,10 @@
       </c>
       <c r="G257" s="6"/>
       <c r="I257" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
         <v>528</v>
       </c>
@@ -6554,10 +6549,10 @@
         <v>256</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E258" s="8">
         <v>21</v>
@@ -6567,10 +6562,10 @@
       </c>
       <c r="G258" s="6"/>
       <c r="I258" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="10">
         <v>529</v>
       </c>
@@ -6578,10 +6573,10 @@
         <v>257</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E259" s="8">
         <v>28.1</v>
@@ -6591,10 +6586,10 @@
       </c>
       <c r="G259" s="6"/>
       <c r="I259" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="10">
         <v>555</v>
       </c>
@@ -6602,10 +6597,10 @@
         <v>258</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E260" s="8">
         <v>26</v>
@@ -6615,10 +6610,10 @@
       </c>
       <c r="G260" s="6"/>
       <c r="I260" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="10">
         <v>570</v>
       </c>
@@ -6626,10 +6621,10 @@
         <v>259</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E261" s="8">
         <v>27.5</v>
@@ -6639,10 +6634,10 @@
       </c>
       <c r="G261" s="6"/>
       <c r="I261" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="10">
         <v>586</v>
       </c>
@@ -6650,10 +6645,10 @@
         <v>260</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E262" s="8">
         <v>21.9</v>
@@ -6663,10 +6658,10 @@
       </c>
       <c r="G262" s="6"/>
       <c r="I262" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="10">
         <v>602</v>
       </c>
@@ -6674,10 +6669,10 @@
         <v>261</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E263" s="8">
         <v>23.6</v>
@@ -6687,10 +6682,10 @@
       </c>
       <c r="G263" s="6"/>
       <c r="I263" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="10">
         <v>616</v>
       </c>
@@ -6698,10 +6693,10 @@
         <v>262</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E264" s="8">
         <v>25.9</v>
@@ -6711,10 +6706,10 @@
       </c>
       <c r="G264" s="6"/>
       <c r="I264" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="10">
         <v>617</v>
       </c>
@@ -6722,10 +6717,10 @@
         <v>263</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E265" s="8">
         <v>27.8</v>
@@ -6735,10 +6730,10 @@
       </c>
       <c r="G265" s="6"/>
       <c r="I265" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="10">
         <v>639</v>
       </c>
@@ -6746,10 +6741,10 @@
         <v>264</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E266" s="8">
         <v>25.1</v>
@@ -6759,10 +6754,10 @@
       </c>
       <c r="G266" s="6"/>
       <c r="I266" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="10">
         <v>647</v>
       </c>
@@ -6770,10 +6765,10 @@
         <v>265</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E267" s="8">
         <v>26.7</v>
@@ -6783,10 +6778,10 @@
       </c>
       <c r="G267" s="6"/>
       <c r="I267" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="10">
         <v>650</v>
       </c>
@@ -6794,10 +6789,10 @@
         <v>266</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E268" s="8">
         <v>20.399999999999999</v>
@@ -6807,10 +6802,10 @@
       </c>
       <c r="G268" s="6"/>
       <c r="I268" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="10">
         <v>671</v>
       </c>
@@ -6818,10 +6813,10 @@
         <v>267</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E269" s="8">
         <v>22.2</v>
@@ -6831,10 +6826,10 @@
       </c>
       <c r="G269" s="6"/>
       <c r="I269" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="10">
         <v>672</v>
       </c>
@@ -6842,10 +6837,10 @@
         <v>268</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E270" s="8">
         <v>28.3</v>
@@ -6855,10 +6850,10 @@
       </c>
       <c r="G270" s="6"/>
       <c r="I270" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="10">
         <v>683</v>
       </c>
@@ -6866,10 +6861,10 @@
         <v>269</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E271" s="8">
         <v>25.6</v>
@@ -6879,10 +6874,10 @@
       </c>
       <c r="G271" s="6"/>
       <c r="I271" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="10">
         <v>697</v>
       </c>
@@ -6890,10 +6885,10 @@
         <v>270</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E272" s="8">
         <v>24.9</v>
@@ -6903,10 +6898,10 @@
       </c>
       <c r="G272" s="6"/>
       <c r="I272" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="10">
         <v>700</v>
       </c>
@@ -6914,10 +6909,10 @@
         <v>271</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E273" s="8">
         <v>29.6</v>
@@ -6927,10 +6922,10 @@
       </c>
       <c r="G273" s="6"/>
       <c r="I273" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="10">
         <v>715</v>
       </c>
@@ -6938,10 +6933,10 @@
         <v>272</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E274" s="8">
         <v>23.6</v>
@@ -6951,10 +6946,10 @@
       </c>
       <c r="G274" s="6"/>
       <c r="I274" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="10">
         <v>751</v>
       </c>
@@ -6962,10 +6957,10 @@
         <v>273</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E275" s="8">
         <v>29.3</v>
@@ -6975,10 +6970,10 @@
       </c>
       <c r="G275" s="6"/>
       <c r="I275" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="10">
         <v>783</v>
       </c>
@@ -6986,10 +6981,10 @@
         <v>274</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E276" s="8">
         <v>21.1</v>
@@ -6999,10 +6994,10 @@
       </c>
       <c r="G276" s="6"/>
       <c r="I276" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="10">
         <v>803</v>
       </c>
@@ -7010,10 +7005,10 @@
         <v>275</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E277" s="8">
         <v>20.6</v>
@@ -7023,10 +7018,10 @@
       </c>
       <c r="G277" s="6"/>
       <c r="I277" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="10">
         <v>815</v>
       </c>
@@ -7034,10 +7029,10 @@
         <v>276</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E278" s="8">
         <v>21.1</v>
@@ -7047,10 +7042,10 @@
       </c>
       <c r="G278" s="6"/>
       <c r="I278" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="10">
         <v>819</v>
       </c>
@@ -7058,10 +7053,10 @@
         <v>277</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E279" s="8">
         <v>26.1</v>
@@ -7071,10 +7066,10 @@
       </c>
       <c r="G279" s="6"/>
       <c r="I279" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="10">
         <v>833</v>
       </c>
@@ -7082,10 +7077,10 @@
         <v>278</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E280" s="8">
         <v>28.6</v>
@@ -7095,10 +7090,10 @@
       </c>
       <c r="G280" s="6"/>
       <c r="I280" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="10">
         <v>835</v>
       </c>
@@ -7106,10 +7101,10 @@
         <v>279</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E281" s="8">
         <v>21</v>
@@ -7119,10 +7114,10 @@
       </c>
       <c r="G281" s="6"/>
       <c r="I281" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="10">
         <v>858</v>
       </c>
@@ -7130,10 +7125,10 @@
         <v>280</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E282" s="8">
         <v>27.8</v>
@@ -7143,10 +7138,10 @@
       </c>
       <c r="G282" s="6"/>
       <c r="I282" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="10">
         <v>859</v>
       </c>
@@ -7154,10 +7149,10 @@
         <v>281</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E283" s="8">
         <v>24.6</v>
@@ -7167,10 +7162,10 @@
       </c>
       <c r="G283" s="6"/>
       <c r="I283" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="10">
         <v>872</v>
       </c>
@@ -7178,10 +7173,10 @@
         <v>282</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E284" s="8">
         <v>21.8</v>
@@ -7191,10 +7186,10 @@
       </c>
       <c r="G284" s="6"/>
       <c r="I284" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="10">
         <v>894</v>
       </c>
@@ -7202,10 +7197,10 @@
         <v>283</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E285" s="8">
         <v>22.2</v>
@@ -7215,10 +7210,10 @@
       </c>
       <c r="G285" s="6"/>
       <c r="I285" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="10">
         <v>902</v>
       </c>
@@ -7226,10 +7221,10 @@
         <v>284</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E286" s="8">
         <v>20.5</v>
@@ -7239,10 +7234,10 @@
       </c>
       <c r="G286" s="6"/>
       <c r="I286" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="10">
         <v>906</v>
       </c>
@@ -7250,10 +7245,10 @@
         <v>285</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E287" s="8">
         <v>25</v>
@@ -7263,10 +7258,10 @@
       </c>
       <c r="G287" s="6"/>
       <c r="I287" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="10">
         <v>930</v>
       </c>
@@ -7274,10 +7269,10 @@
         <v>286</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E288" s="8">
         <v>28.6</v>
@@ -7287,10 +7282,10 @@
       </c>
       <c r="G288" s="6"/>
       <c r="I288" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="10">
         <v>937</v>
       </c>
@@ -7298,10 +7293,10 @@
         <v>287</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E289" s="8">
         <v>21.6</v>
@@ -7311,10 +7306,10 @@
       </c>
       <c r="G289" s="6"/>
       <c r="I289" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="10">
         <v>941</v>
       </c>
@@ -7322,10 +7317,10 @@
         <v>288</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E290" s="8">
         <v>20.6</v>
@@ -7335,10 +7330,10 @@
       </c>
       <c r="G290" s="6"/>
       <c r="I290" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="10">
         <v>950</v>
       </c>
@@ -7346,10 +7341,10 @@
         <v>289</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E291" s="8">
         <v>26.7</v>
@@ -7359,10 +7354,10 @@
       </c>
       <c r="G291" s="6"/>
       <c r="I291" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="10">
         <v>955</v>
       </c>
@@ -7370,10 +7365,10 @@
         <v>290</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E292" s="8">
         <v>29</v>
@@ -7383,10 +7378,10 @@
       </c>
       <c r="G292" s="6"/>
       <c r="I292" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="10">
         <v>959</v>
       </c>
@@ -7394,10 +7389,10 @@
         <v>291</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E293" s="8">
         <v>23.7</v>
@@ -7407,10 +7402,10 @@
       </c>
       <c r="G293" s="6"/>
       <c r="I293" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="10">
         <v>965</v>
       </c>
@@ -7418,10 +7413,10 @@
         <v>292</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E294" s="8">
         <v>25.5</v>
@@ -7431,10 +7426,10 @@
       </c>
       <c r="G294" s="6"/>
       <c r="I294" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="10">
         <v>1032</v>
       </c>
@@ -7442,10 +7437,10 @@
         <v>293</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D295" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E295" s="8">
         <v>27.5</v>
@@ -7455,10 +7450,10 @@
       </c>
       <c r="G295" s="6"/>
       <c r="I295" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="10">
         <v>1053</v>
       </c>
@@ -7466,10 +7461,10 @@
         <v>294</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E296" s="8">
         <v>29.5</v>
@@ -7479,10 +7474,10 @@
       </c>
       <c r="G296" s="6"/>
       <c r="I296" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="10">
         <v>1103</v>
       </c>
@@ -7490,10 +7485,10 @@
         <v>295</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E297" s="8">
         <v>21.6</v>
@@ -7503,10 +7498,10 @@
       </c>
       <c r="G297" s="6"/>
       <c r="I297" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="10">
         <v>1114</v>
       </c>
@@ -7514,10 +7509,10 @@
         <v>296</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E298" s="8">
         <v>26.2</v>
@@ -7527,10 +7522,10 @@
       </c>
       <c r="G298" s="6"/>
       <c r="I298" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="10">
         <v>1127</v>
       </c>
@@ -7538,10 +7533,10 @@
         <v>297</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E299" s="8">
         <v>22</v>
@@ -7551,10 +7546,10 @@
       </c>
       <c r="G299" s="6"/>
       <c r="I299" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="10">
         <v>1149</v>
       </c>
@@ -7562,10 +7557,10 @@
         <v>298</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E300" s="8">
         <v>28.5</v>
@@ -7575,10 +7570,10 @@
       </c>
       <c r="G300" s="6"/>
       <c r="I300" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="10">
         <v>1150</v>
       </c>
@@ -7586,10 +7581,10 @@
         <v>299</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E301" s="8">
         <v>25.4</v>
@@ -7599,10 +7594,10 @@
       </c>
       <c r="G301" s="6"/>
       <c r="I301" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="10">
         <v>1151</v>
       </c>
@@ -7610,10 +7605,10 @@
         <v>300</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E302" s="8">
         <v>27.9</v>
@@ -7623,10 +7618,10 @@
       </c>
       <c r="G302" s="6"/>
       <c r="I302" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="10">
         <v>1157</v>
       </c>
@@ -7634,10 +7629,10 @@
         <v>301</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E303" s="8">
         <v>23.7</v>
@@ -7647,10 +7642,10 @@
       </c>
       <c r="G303" s="6"/>
       <c r="I303" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="10">
         <v>1190</v>
       </c>
@@ -7658,10 +7653,10 @@
         <v>302</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E304" s="8">
         <v>27.6</v>
@@ -7671,10 +7666,10 @@
       </c>
       <c r="G304" s="6"/>
       <c r="I304" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="10">
         <v>1197</v>
       </c>
@@ -7682,10 +7677,10 @@
         <v>303</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E305" s="8">
         <v>25.5</v>
@@ -7695,10 +7690,10 @@
       </c>
       <c r="G305" s="6"/>
       <c r="I305" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="10">
         <v>1211</v>
       </c>
@@ -7706,10 +7701,10 @@
         <v>304</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E306" s="8">
         <v>27.6</v>
@@ -7719,10 +7714,10 @@
       </c>
       <c r="G306" s="6"/>
       <c r="I306" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="10">
         <v>1249</v>
       </c>
@@ -7730,10 +7725,10 @@
         <v>305</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E307" s="8">
         <v>29.9</v>
@@ -7743,10 +7738,10 @@
       </c>
       <c r="G307" s="6"/>
       <c r="I307" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="10">
         <v>1252</v>
       </c>
@@ -7754,10 +7749,10 @@
         <v>306</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E308" s="8">
         <v>28.3</v>
@@ -7767,10 +7762,10 @@
       </c>
       <c r="G308" s="6"/>
       <c r="I308" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="10">
         <v>1270</v>
       </c>
@@ -7778,10 +7773,10 @@
         <v>307</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E309" s="8">
         <v>22.2</v>
@@ -7791,10 +7786,10 @@
       </c>
       <c r="G309" s="6"/>
       <c r="I309" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="10">
         <v>1273</v>
       </c>
@@ -7802,10 +7797,10 @@
         <v>308</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E310" s="8">
         <v>23.4</v>
@@ -7815,10 +7810,10 @@
       </c>
       <c r="G310" s="6"/>
       <c r="I310" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="10">
         <v>1303</v>
       </c>
@@ -7826,10 +7821,10 @@
         <v>309</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E311" s="8">
         <v>21.2</v>
@@ -7839,10 +7834,10 @@
       </c>
       <c r="G311" s="6"/>
       <c r="I311" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="10">
         <v>1309</v>
       </c>
@@ -7850,10 +7845,10 @@
         <v>310</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E312" s="8">
         <v>26.9</v>
@@ -7863,7 +7858,7 @@
       </c>
       <c r="G312" s="6"/>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="10">
         <v>1317</v>
       </c>
@@ -7871,10 +7866,10 @@
         <v>311</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E313" s="8">
         <v>22.9</v>
@@ -7884,7 +7879,7 @@
       </c>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="10">
         <v>1321</v>
       </c>
@@ -7892,10 +7887,10 @@
         <v>312</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E314" s="8">
         <v>25.3</v>
@@ -7905,7 +7900,7 @@
       </c>
       <c r="G314" s="6"/>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="10">
         <v>1371</v>
       </c>
@@ -7913,10 +7908,10 @@
         <v>313</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E315" s="8">
         <v>29</v>
@@ -7926,7 +7921,7 @@
       </c>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="10">
         <v>1379</v>
       </c>
@@ -7934,10 +7929,10 @@
         <v>314</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E316" s="8">
         <v>25.8</v>
@@ -7947,7 +7942,7 @@
       </c>
       <c r="G316" s="6"/>
     </row>
-    <row r="317" spans="1:9" s="37" customFormat="1">
+    <row r="317" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>1391</v>
       </c>
@@ -7955,19 +7950,19 @@
         <v>315</v>
       </c>
       <c r="C317" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D317" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E317" s="34"/>
       <c r="F317" s="35"/>
       <c r="G317" s="36"/>
       <c r="H317" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="10">
         <v>1403</v>
       </c>
@@ -7975,10 +7970,10 @@
         <v>316</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E318" s="8">
         <v>20.9</v>
@@ -7988,7 +7983,7 @@
       </c>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="10">
         <v>1419</v>
       </c>
@@ -7996,10 +7991,10 @@
         <v>317</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D319" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E319" s="8">
         <v>20.6</v>
@@ -8009,7 +8004,7 @@
       </c>
       <c r="G319" s="6"/>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="10">
         <v>1423</v>
       </c>
@@ -8017,10 +8012,10 @@
         <v>318</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D320" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E320" s="8">
         <v>25.5</v>
@@ -8030,7 +8025,7 @@
       </c>
       <c r="G320" s="6"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10">
         <v>1442</v>
       </c>
@@ -8038,10 +8033,10 @@
         <v>319</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D321" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E321" s="8">
         <v>26.1</v>
@@ -8051,7 +8046,7 @@
       </c>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10">
         <v>1450</v>
       </c>
@@ -8059,10 +8054,10 @@
         <v>320</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D322" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E322" s="8">
         <v>22.7</v>
@@ -8072,7 +8067,7 @@
       </c>
       <c r="G322" s="6"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="10">
         <v>1481</v>
       </c>
@@ -8080,10 +8075,10 @@
         <v>321</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E323" s="8">
         <v>21.2</v>
@@ -8093,7 +8088,7 @@
       </c>
       <c r="G323" s="6"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="10">
         <v>1485</v>
       </c>
@@ -8101,10 +8096,10 @@
         <v>322</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D324" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E324" s="8">
         <v>24.5</v>
@@ -8114,7 +8109,7 @@
       </c>
       <c r="G324" s="6"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="10">
         <v>1521</v>
       </c>
@@ -8122,10 +8117,10 @@
         <v>323</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E325" s="8">
         <v>23.8</v>
@@ -8135,7 +8130,7 @@
       </c>
       <c r="G325" s="6"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="10">
         <v>1552</v>
       </c>
@@ -8143,10 +8138,10 @@
         <v>324</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E326" s="8">
         <v>26.9</v>
